--- a/attendance-files/SM-II/SM-II (A) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (A) Attendance Sheet.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="Attendance Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Attendance Sheet'!$K$6:$K$79</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Attendance Sheet'!$N$6:$N$92</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="yrQcSJr7yU7UBg6CnnvageYzwjWH2NZ8CV3wphL4EOA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="VlCU4KD6QwvxylsfMUhSBL0spNFj6v6ewvKFfID+ztA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="165">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1687,7 +1687,9 @@
       <c r="M7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="30"/>
+      <c r="N7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="31"/>
@@ -1722,7 +1724,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1745,7 +1747,9 @@
       <c r="M8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="37"/>
+      <c r="N8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="38"/>
@@ -1780,7 +1784,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1803,7 +1807,9 @@
       <c r="M9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="37"/>
+      <c r="N9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="38"/>
@@ -1838,7 +1844,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1861,7 +1867,9 @@
       <c r="M10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="37"/>
+      <c r="N10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="38"/>
@@ -1896,7 +1904,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1919,7 +1927,9 @@
       <c r="M11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="37"/>
+      <c r="N11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="38"/>
@@ -1954,7 +1964,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1977,7 +1987,9 @@
       <c r="M12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="37"/>
+      <c r="N12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="38"/>
@@ -2008,7 +2020,7 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
@@ -2035,7 +2047,9 @@
       <c r="M13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="37"/>
+      <c r="N13" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="38"/>
@@ -2070,7 +2084,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>9</v>
@@ -2093,7 +2107,9 @@
       <c r="M14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="37"/>
+      <c r="N14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="38"/>
@@ -2124,7 +2140,7 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
@@ -2151,7 +2167,9 @@
       <c r="M15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="37"/>
+      <c r="N15" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="38"/>
@@ -2186,7 +2204,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2209,7 +2227,9 @@
       <c r="M16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="38"/>
@@ -2244,7 +2264,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2267,7 +2287,9 @@
       <c r="M17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="37"/>
+      <c r="N17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="38"/>
@@ -2302,7 +2324,7 @@
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2325,7 +2347,9 @@
       <c r="M18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="37"/>
+      <c r="N18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="38"/>
@@ -2360,7 +2384,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2383,7 +2407,9 @@
       <c r="M19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="37"/>
+      <c r="N19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="38"/>
@@ -2418,7 +2444,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2441,7 +2467,9 @@
       <c r="M20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="37"/>
+      <c r="N20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="38"/>
@@ -2476,7 +2504,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2499,7 +2527,9 @@
       <c r="M21" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="37"/>
+      <c r="N21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="38"/>
@@ -2534,7 +2564,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2557,7 +2587,9 @@
       <c r="M22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="37"/>
+      <c r="N22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="38"/>
@@ -2592,7 +2624,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2615,7 +2647,9 @@
       <c r="M23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="37"/>
+      <c r="N23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="38"/>
@@ -2650,7 +2684,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2673,7 +2707,9 @@
       <c r="M24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="37"/>
+      <c r="N24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="38"/>
@@ -2708,7 +2744,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2731,7 +2767,9 @@
       <c r="M25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="37"/>
+      <c r="N25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="38"/>
@@ -2766,7 +2804,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2789,7 +2827,9 @@
       <c r="M26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="38"/>
@@ -2824,7 +2864,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2847,7 +2887,9 @@
       <c r="M27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="37"/>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="38"/>
@@ -2882,7 +2924,7 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -2905,7 +2947,9 @@
       <c r="M28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="37"/>
+      <c r="N28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="38"/>
@@ -2940,7 +2984,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -2963,7 +3007,9 @@
       <c r="M29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="37"/>
+      <c r="N29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="38"/>
@@ -2998,7 +3044,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3021,7 +3067,9 @@
       <c r="M30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="37"/>
+      <c r="N30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="38"/>
@@ -3056,7 +3104,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" s="42" t="s">
         <v>9</v>
@@ -3079,7 +3127,9 @@
       <c r="M31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="37"/>
+      <c r="N31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
       <c r="Q31" s="38"/>
@@ -3114,7 +3164,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3137,7 +3187,9 @@
       <c r="M32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="37"/>
+      <c r="N32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O32" s="37"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="38"/>
@@ -3172,7 +3224,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3195,7 +3247,9 @@
       <c r="M33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="37"/>
+      <c r="N33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O33" s="37"/>
       <c r="P33" s="37"/>
       <c r="Q33" s="38"/>
@@ -3230,7 +3284,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3253,7 +3307,9 @@
       <c r="M34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="37"/>
+      <c r="N34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O34" s="37"/>
       <c r="P34" s="37"/>
       <c r="Q34" s="38"/>
@@ -3288,7 +3344,7 @@
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>9</v>
@@ -3311,7 +3367,9 @@
       <c r="M35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="37"/>
+      <c r="N35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O35" s="37"/>
       <c r="P35" s="37"/>
       <c r="Q35" s="38"/>
@@ -3346,7 +3404,7 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3369,7 +3427,9 @@
       <c r="M36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="37"/>
+      <c r="N36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O36" s="37"/>
       <c r="P36" s="37"/>
       <c r="Q36" s="38"/>
@@ -3404,7 +3464,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="42" t="s">
         <v>9</v>
@@ -3427,7 +3487,9 @@
       <c r="M37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="37"/>
+      <c r="N37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
       <c r="Q37" s="38"/>
@@ -3462,7 +3524,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3485,7 +3547,9 @@
       <c r="M38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="37"/>
+      <c r="N38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O38" s="37"/>
       <c r="P38" s="37"/>
       <c r="Q38" s="38"/>
@@ -3516,7 +3580,7 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
@@ -3543,7 +3607,9 @@
       <c r="M39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="37"/>
+      <c r="N39" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
       <c r="Q39" s="38"/>
@@ -3578,7 +3644,7 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3601,7 +3667,9 @@
       <c r="M40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="37"/>
+      <c r="N40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
       <c r="Q40" s="38"/>
@@ -3636,7 +3704,7 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3659,7 +3727,9 @@
       <c r="M41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="37"/>
+      <c r="N41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O41" s="37"/>
       <c r="P41" s="37"/>
       <c r="Q41" s="38"/>
@@ -3694,7 +3764,7 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3717,7 +3787,9 @@
       <c r="M42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="37"/>
+      <c r="N42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O42" s="37"/>
       <c r="P42" s="37"/>
       <c r="Q42" s="38"/>
@@ -3752,7 +3824,7 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3775,7 +3847,9 @@
       <c r="M43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="37"/>
+      <c r="N43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O43" s="37"/>
       <c r="P43" s="37"/>
       <c r="Q43" s="38"/>
@@ -3806,7 +3880,7 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
@@ -3833,7 +3907,9 @@
       <c r="M44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="37"/>
+      <c r="N44" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="O44" s="37"/>
       <c r="P44" s="37"/>
       <c r="Q44" s="38"/>
@@ -3868,7 +3944,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -3891,7 +3967,9 @@
       <c r="M45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="37"/>
+      <c r="N45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O45" s="37"/>
       <c r="P45" s="37"/>
       <c r="Q45" s="38"/>
@@ -3926,7 +4004,7 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -3949,7 +4027,9 @@
       <c r="M46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="37"/>
+      <c r="N46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O46" s="37"/>
       <c r="P46" s="37"/>
       <c r="Q46" s="38"/>
@@ -3984,7 +4064,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4007,7 +4087,9 @@
       <c r="M47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="37"/>
+      <c r="N47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O47" s="37"/>
       <c r="P47" s="37"/>
       <c r="Q47" s="38"/>
@@ -4038,7 +4120,7 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
@@ -4065,7 +4147,9 @@
       <c r="M48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="37"/>
+      <c r="N48" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="O48" s="37"/>
       <c r="P48" s="37"/>
       <c r="Q48" s="38"/>
@@ -4100,7 +4184,7 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G49" s="42" t="s">
         <v>9</v>
@@ -4123,7 +4207,9 @@
       <c r="M49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="37"/>
+      <c r="N49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O49" s="37"/>
       <c r="P49" s="37"/>
       <c r="Q49" s="38"/>
@@ -4154,7 +4240,7 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
@@ -4181,7 +4267,9 @@
       <c r="M50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="37"/>
+      <c r="N50" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="O50" s="37"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="38"/>
@@ -4216,7 +4304,7 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4239,7 +4327,9 @@
       <c r="M51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="37"/>
+      <c r="N51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O51" s="37"/>
       <c r="P51" s="37"/>
       <c r="Q51" s="38"/>
@@ -4274,7 +4364,7 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4297,7 +4387,9 @@
       <c r="M52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="37"/>
+      <c r="N52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O52" s="37"/>
       <c r="P52" s="37"/>
       <c r="Q52" s="38"/>
@@ -4332,7 +4424,7 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4355,7 +4447,9 @@
       <c r="M53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="37"/>
+      <c r="N53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O53" s="37"/>
       <c r="P53" s="37"/>
       <c r="Q53" s="38"/>
@@ -4390,7 +4484,7 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4413,7 +4507,9 @@
       <c r="M54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="37"/>
+      <c r="N54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O54" s="37"/>
       <c r="P54" s="37"/>
       <c r="Q54" s="38"/>
@@ -4448,7 +4544,7 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4471,7 +4567,9 @@
       <c r="M55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="37"/>
+      <c r="N55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O55" s="37"/>
       <c r="P55" s="37"/>
       <c r="Q55" s="38"/>
@@ -4506,7 +4604,7 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -4529,7 +4627,9 @@
       <c r="M56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="37"/>
+      <c r="N56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O56" s="37"/>
       <c r="P56" s="37"/>
       <c r="Q56" s="38"/>
@@ -4564,7 +4664,7 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G57" s="42" t="s">
         <v>9</v>
@@ -4587,7 +4687,9 @@
       <c r="M57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="37"/>
+      <c r="N57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O57" s="37"/>
       <c r="P57" s="37"/>
       <c r="Q57" s="38"/>
@@ -4622,7 +4724,7 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -4645,7 +4747,9 @@
       <c r="M58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="37"/>
+      <c r="N58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O58" s="37"/>
       <c r="P58" s="37"/>
       <c r="Q58" s="38"/>
@@ -4680,7 +4784,7 @@
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4703,7 +4807,9 @@
       <c r="M59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="37"/>
+      <c r="N59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O59" s="37"/>
       <c r="P59" s="37"/>
       <c r="Q59" s="38"/>
@@ -4738,7 +4844,7 @@
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -4761,7 +4867,9 @@
       <c r="M60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N60" s="37"/>
+      <c r="N60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O60" s="37"/>
       <c r="P60" s="37"/>
       <c r="Q60" s="38"/>
@@ -4796,7 +4904,7 @@
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -4819,7 +4927,9 @@
       <c r="M61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="37"/>
+      <c r="N61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O61" s="37"/>
       <c r="P61" s="37"/>
       <c r="Q61" s="38"/>
@@ -4854,7 +4964,7 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -4877,7 +4987,9 @@
       <c r="M62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="37"/>
+      <c r="N62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O62" s="37"/>
       <c r="P62" s="37"/>
       <c r="Q62" s="38"/>
@@ -4912,7 +5024,7 @@
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -4935,7 +5047,9 @@
       <c r="M63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="37"/>
+      <c r="N63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O63" s="37"/>
       <c r="P63" s="37"/>
       <c r="Q63" s="38"/>
@@ -4970,7 +5084,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -4993,7 +5107,9 @@
       <c r="M64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="37"/>
+      <c r="N64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O64" s="37"/>
       <c r="P64" s="37"/>
       <c r="Q64" s="38"/>
@@ -5028,7 +5144,7 @@
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -5051,7 +5167,9 @@
       <c r="M65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N65" s="37"/>
+      <c r="N65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O65" s="37"/>
       <c r="P65" s="37"/>
       <c r="Q65" s="38"/>
@@ -5086,7 +5204,7 @@
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -5109,7 +5227,9 @@
       <c r="M66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="37"/>
+      <c r="N66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O66" s="37"/>
       <c r="P66" s="37"/>
       <c r="Q66" s="38"/>
@@ -5144,7 +5264,7 @@
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -5167,7 +5287,9 @@
       <c r="M67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="37"/>
+      <c r="N67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O67" s="37"/>
       <c r="P67" s="37"/>
       <c r="Q67" s="38"/>
@@ -5198,7 +5320,7 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
@@ -5225,7 +5347,9 @@
       <c r="M68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="37"/>
+      <c r="N68" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="O68" s="37"/>
       <c r="P68" s="37"/>
       <c r="Q68" s="38"/>
@@ -5260,7 +5384,7 @@
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5283,7 +5407,9 @@
       <c r="M69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="37"/>
+      <c r="N69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O69" s="37"/>
       <c r="P69" s="37"/>
       <c r="Q69" s="38"/>
@@ -5318,7 +5444,7 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5341,7 +5467,9 @@
       <c r="M70" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="37"/>
+      <c r="N70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O70" s="37"/>
       <c r="P70" s="37"/>
       <c r="Q70" s="38"/>
@@ -5376,7 +5504,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5399,7 +5527,9 @@
       <c r="M71" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="37"/>
+      <c r="N71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O71" s="37"/>
       <c r="P71" s="37"/>
       <c r="Q71" s="38"/>
@@ -5434,7 +5564,7 @@
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -5457,7 +5587,9 @@
       <c r="M72" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="37"/>
+      <c r="N72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O72" s="37"/>
       <c r="P72" s="37"/>
       <c r="Q72" s="38"/>
@@ -5492,7 +5624,7 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -5515,7 +5647,9 @@
       <c r="M73" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N73" s="37"/>
+      <c r="N73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O73" s="37"/>
       <c r="P73" s="37"/>
       <c r="Q73" s="38"/>
@@ -5550,7 +5684,7 @@
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74" s="42" t="s">
         <v>9</v>
@@ -5573,7 +5707,9 @@
       <c r="M74" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N74" s="37"/>
+      <c r="N74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O74" s="37"/>
       <c r="P74" s="37"/>
       <c r="Q74" s="38"/>
@@ -5608,7 +5744,7 @@
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G75" s="42" t="s">
         <v>9</v>
@@ -5631,7 +5767,9 @@
       <c r="M75" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N75" s="37"/>
+      <c r="N75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O75" s="37"/>
       <c r="P75" s="37"/>
       <c r="Q75" s="38"/>
@@ -5666,7 +5804,7 @@
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -5689,7 +5827,9 @@
       <c r="M76" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N76" s="37"/>
+      <c r="N76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
       <c r="Q76" s="38"/>
@@ -5724,7 +5864,7 @@
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -5747,7 +5887,9 @@
       <c r="M77" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N77" s="37"/>
+      <c r="N77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O77" s="37"/>
       <c r="P77" s="37"/>
       <c r="Q77" s="38"/>
@@ -5782,7 +5924,7 @@
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -5805,7 +5947,9 @@
       <c r="M78" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N78" s="37"/>
+      <c r="N78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O78" s="37"/>
       <c r="P78" s="37"/>
       <c r="Q78" s="38"/>
@@ -5836,7 +5980,7 @@
       </c>
       <c r="E79" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
@@ -5863,7 +6007,9 @@
       <c r="M79" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N79" s="37"/>
+      <c r="N79" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="O79" s="37"/>
       <c r="P79" s="37"/>
       <c r="Q79" s="38"/>
@@ -17347,7 +17493,7 @@
       <c r="P1000" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="$K$6:$K$79"/>
+  <autoFilter ref="$N$6:$N$92"/>
   <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/attendance-files/SM-II/SM-II (A) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (A) Attendance Sheet.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="Attendance Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Attendance Sheet'!$R$6:$R$79</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Attendance Sheet'!$S$6:$T$79</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="gHpXoexmJph8egBiKOudM2vP3ENu5jqz3QOOOKoEO3Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="KMClMAhlKLU6vLLN58oikZNtQp7dEt766gql1/6XEUE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="165">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1025,14 +1025,14 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:U7,"P"),"")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1644,8 +1644,12 @@
       <c r="R7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
+      <c r="S7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U7" s="30"/>
       <c r="V7" s="31"/>
     </row>
@@ -1665,7 +1669,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
@@ -1707,12 +1711,14 @@
       <c r="R8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="38"/>
+      <c r="S8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="38"/>
+      <c r="V8" s="39"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="32">
@@ -1730,7 +1736,7 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
@@ -1772,12 +1778,14 @@
       <c r="R9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="38"/>
+      <c r="S9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="38"/>
+      <c r="V9" s="39"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="32">
@@ -1799,7 +1807,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1810,7 +1818,7 @@
       <c r="I10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="29" t="s">
@@ -1837,10 +1845,14 @@
       <c r="R10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="38"/>
+      <c r="S10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="38"/>
+      <c r="V10" s="39"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="32">
@@ -1862,7 +1874,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1870,10 +1882,10 @@
       <c r="H11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="39" t="s">
+      <c r="I11" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="29" t="s">
@@ -1891,7 +1903,7 @@
       <c r="O11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="P11" s="40" t="s">
         <v>9</v>
       </c>
       <c r="Q11" s="36" t="s">
@@ -1900,10 +1912,14 @@
       <c r="R11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="38"/>
+      <c r="S11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="38"/>
+      <c r="V11" s="39"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="32">
@@ -1925,7 +1941,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1936,10 +1952,10 @@
       <c r="I12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="39" t="s">
+      <c r="J12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="29" t="s">
@@ -1963,10 +1979,14 @@
       <c r="R12" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="38"/>
+      <c r="S12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="38"/>
+      <c r="V12" s="39"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="32">
@@ -1988,7 +2008,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -1999,7 +2019,7 @@
       <c r="I13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="29" t="s">
@@ -2011,7 +2031,7 @@
       <c r="M13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="40" t="s">
+      <c r="N13" s="37" t="s">
         <v>9</v>
       </c>
       <c r="O13" s="29" t="s">
@@ -2020,16 +2040,20 @@
       <c r="P13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="39" t="s">
+      <c r="Q13" s="40" t="s">
         <v>9</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="38"/>
+      <c r="S13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="38"/>
+      <c r="V13" s="39"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="32">
@@ -2051,7 +2075,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>9</v>
@@ -2062,7 +2086,7 @@
       <c r="I14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="29" t="s">
@@ -2089,10 +2113,14 @@
       <c r="R14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="38"/>
+      <c r="S14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="32">
@@ -2114,7 +2142,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2125,10 +2153,10 @@
       <c r="I15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="39" t="s">
+      <c r="J15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="29" t="s">
@@ -2149,13 +2177,17 @@
       <c r="Q15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="38"/>
+      <c r="R15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="32">
@@ -2173,7 +2205,7 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
@@ -2212,15 +2244,17 @@
       <c r="Q16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="38"/>
+      <c r="R16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="32">
@@ -2242,7 +2276,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2250,10 +2284,10 @@
       <c r="H17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="39" t="s">
+      <c r="I17" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K17" s="29" t="s">
@@ -2280,10 +2314,14 @@
       <c r="R17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="38"/>
+      <c r="S17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="32">
@@ -2305,7 +2343,7 @@
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2331,7 +2369,7 @@
       <c r="N18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P18" s="29" t="s">
@@ -2343,10 +2381,14 @@
       <c r="R18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="38"/>
+      <c r="S18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="38"/>
+      <c r="V18" s="39"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="32">
@@ -2368,7 +2410,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2403,15 +2445,17 @@
       <c r="Q19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="38"/>
+      <c r="R19" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="38"/>
+      <c r="V19" s="39"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="32">
@@ -2433,7 +2477,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2459,7 +2503,7 @@
       <c r="N20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="39" t="s">
+      <c r="O20" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P20" s="29" t="s">
@@ -2468,15 +2512,17 @@
       <c r="Q20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S20" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="38"/>
+      <c r="R20" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="38"/>
+      <c r="V20" s="39"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="32">
@@ -2498,7 +2544,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2518,7 +2564,7 @@
       <c r="L21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="M21" s="40" t="s">
         <v>9</v>
       </c>
       <c r="N21" s="29" t="s">
@@ -2536,10 +2582,14 @@
       <c r="R21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="38"/>
+      <c r="S21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="38"/>
+      <c r="V21" s="39"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="32">
@@ -2561,7 +2611,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2575,7 +2625,7 @@
       <c r="J22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="29" t="s">
@@ -2587,7 +2637,7 @@
       <c r="N22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P22" s="29" t="s">
@@ -2599,12 +2649,14 @@
       <c r="R22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="38"/>
+      <c r="S22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="38"/>
+      <c r="V22" s="39"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="32">
@@ -2626,7 +2678,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2664,12 +2716,14 @@
       <c r="R23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="38"/>
+      <c r="S23" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="38"/>
+      <c r="V23" s="39"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="32">
@@ -2687,7 +2741,7 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
@@ -2702,10 +2756,10 @@
       <c r="I24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="39" t="s">
+      <c r="J24" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="29" t="s">
@@ -2729,12 +2783,14 @@
       <c r="R24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="38"/>
+      <c r="S24" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" s="38"/>
+      <c r="V24" s="39"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="32">
@@ -2756,7 +2812,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2764,7 +2820,7 @@
       <c r="H25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J25" s="29" t="s">
@@ -2791,13 +2847,17 @@
       <c r="Q25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="38"/>
+      <c r="R25" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="38"/>
+      <c r="V25" s="39"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="32">
@@ -2819,7 +2879,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2827,7 +2887,7 @@
       <c r="H26" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J26" s="29" t="s">
@@ -2857,12 +2917,14 @@
       <c r="R26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="38"/>
+      <c r="S26" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="38"/>
+      <c r="V26" s="39"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="32">
@@ -2884,7 +2946,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2895,10 +2957,10 @@
       <c r="I27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="39" t="s">
+      <c r="J27" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L27" s="29" t="s">
@@ -2919,13 +2981,17 @@
       <c r="Q27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R27" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="38"/>
+      <c r="R27" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="38"/>
+      <c r="V27" s="39"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="32">
@@ -2943,7 +3009,7 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
@@ -2985,12 +3051,14 @@
       <c r="R28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="38"/>
+      <c r="S28" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U28" s="38"/>
+      <c r="V28" s="39"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="32">
@@ -3012,7 +3080,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -3023,7 +3091,7 @@
       <c r="I29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="39" t="s">
+      <c r="J29" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K29" s="29" t="s">
@@ -3038,22 +3106,26 @@
       <c r="N29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="P29" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q29" s="39" t="s">
+      <c r="O29" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="40" t="s">
         <v>9</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="38"/>
+      <c r="S29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="38"/>
+      <c r="V29" s="39"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="32">
@@ -3075,7 +3147,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3083,7 +3155,7 @@
       <c r="H30" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J30" s="29" t="s">
@@ -3101,7 +3173,7 @@
       <c r="N30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P30" s="29" t="s">
@@ -3113,10 +3185,14 @@
       <c r="R30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="38"/>
+      <c r="S30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="38"/>
+      <c r="V30" s="39"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="32">
@@ -3138,7 +3214,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>9</v>
@@ -3146,7 +3222,7 @@
       <c r="H31" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J31" s="29" t="s">
@@ -3176,10 +3252,14 @@
       <c r="R31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="38"/>
+      <c r="S31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="38"/>
+      <c r="V31" s="39"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="32">
@@ -3197,11 +3277,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3227,7 +3307,7 @@
       <c r="N32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="39" t="s">
+      <c r="O32" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P32" s="29" t="s">
@@ -3239,10 +3319,14 @@
       <c r="R32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="38"/>
+      <c r="S32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U32" s="38"/>
+      <c r="V32" s="39"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="32">
@@ -3264,7 +3348,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3290,10 +3374,10 @@
       <c r="N33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="P33" s="39" t="s">
+      <c r="O33" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="40" t="s">
         <v>9</v>
       </c>
       <c r="Q33" s="36" t="s">
@@ -3302,10 +3386,14 @@
       <c r="R33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="38"/>
+      <c r="S33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="38"/>
+      <c r="V33" s="39"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="32">
@@ -3327,7 +3415,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3338,7 +3426,7 @@
       <c r="I34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="39" t="s">
+      <c r="J34" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K34" s="29" t="s">
@@ -3362,13 +3450,17 @@
       <c r="Q34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="38"/>
+      <c r="R34" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="38"/>
+      <c r="V34" s="39"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="32">
@@ -3390,7 +3482,7 @@
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>9</v>
@@ -3398,10 +3490,10 @@
       <c r="H35" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="39" t="s">
+      <c r="I35" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K35" s="29" t="s">
@@ -3428,10 +3520,14 @@
       <c r="R35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="38"/>
+      <c r="S35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="38"/>
+      <c r="V35" s="39"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="32">
@@ -3449,11 +3545,11 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3491,10 +3587,14 @@
       <c r="R36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="38"/>
+      <c r="S36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U36" s="38"/>
+      <c r="V36" s="39"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="32">
@@ -3516,7 +3616,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>9</v>
@@ -3527,7 +3627,7 @@
       <c r="I37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="39" t="s">
+      <c r="J37" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K37" s="29" t="s">
@@ -3554,12 +3654,14 @@
       <c r="R37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="38"/>
+      <c r="S37" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="38"/>
+      <c r="V37" s="39"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="32">
@@ -3577,11 +3679,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3610,7 +3712,7 @@
       <c r="O38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P38" s="39" t="s">
+      <c r="P38" s="40" t="s">
         <v>9</v>
       </c>
       <c r="Q38" s="36" t="s">
@@ -3619,10 +3721,14 @@
       <c r="R38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="38"/>
+      <c r="S38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U38" s="38"/>
+      <c r="V38" s="39"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="32">
@@ -3644,7 +3750,7 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>20</v>
@@ -3667,13 +3773,13 @@
       <c r="M39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="40" t="s">
+      <c r="N39" s="37" t="s">
         <v>9</v>
       </c>
       <c r="O39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="39" t="s">
+      <c r="P39" s="40" t="s">
         <v>9</v>
       </c>
       <c r="Q39" s="36" t="s">
@@ -3682,10 +3788,14 @@
       <c r="R39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="38"/>
+      <c r="S39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" s="38"/>
+      <c r="V39" s="39"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="32">
@@ -3703,11 +3813,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3742,13 +3852,17 @@
       <c r="Q40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R40" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="38"/>
+      <c r="R40" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U40" s="38"/>
+      <c r="V40" s="39"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="32">
@@ -3770,7 +3884,7 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3805,15 +3919,17 @@
       <c r="Q41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R41" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S41" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="38"/>
+      <c r="R41" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S41" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="38"/>
+      <c r="V41" s="39"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="32">
@@ -3835,7 +3951,7 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3843,10 +3959,10 @@
       <c r="H42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" s="39" t="s">
+      <c r="I42" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K42" s="29" t="s">
@@ -3873,10 +3989,14 @@
       <c r="R42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="38"/>
+      <c r="S42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="38"/>
+      <c r="V42" s="39"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="32">
@@ -3898,7 +4018,7 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3936,10 +4056,14 @@
       <c r="R43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="38"/>
+      <c r="S43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U43" s="38"/>
+      <c r="V43" s="39"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="32">
@@ -3961,7 +4085,7 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -3972,7 +4096,7 @@
       <c r="I44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="39" t="s">
+      <c r="J44" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K44" s="29" t="s">
@@ -3984,7 +4108,7 @@
       <c r="M44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="40" t="s">
+      <c r="N44" s="37" t="s">
         <v>9</v>
       </c>
       <c r="O44" s="29" t="s">
@@ -3999,10 +4123,14 @@
       <c r="R44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="38"/>
+      <c r="S44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="38"/>
+      <c r="V44" s="39"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="32">
@@ -4024,7 +4152,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -4050,7 +4178,7 @@
       <c r="N45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O45" s="39" t="s">
+      <c r="O45" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P45" s="29" t="s">
@@ -4062,10 +4190,14 @@
       <c r="R45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="38"/>
+      <c r="S45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45" s="38"/>
+      <c r="V45" s="39"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="32">
@@ -4087,7 +4219,7 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4098,7 +4230,7 @@
       <c r="I46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="39" t="s">
+      <c r="J46" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K46" s="29" t="s">
@@ -4122,13 +4254,17 @@
       <c r="Q46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="38"/>
+      <c r="R46" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="38"/>
+      <c r="V46" s="39"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="32">
@@ -4150,7 +4286,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4176,7 +4312,7 @@
       <c r="N47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="39" t="s">
+      <c r="O47" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P47" s="29" t="s">
@@ -4188,10 +4324,14 @@
       <c r="R47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="38"/>
+      <c r="S47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" s="38"/>
+      <c r="V47" s="39"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="32">
@@ -4213,7 +4353,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4236,13 +4376,13 @@
       <c r="M48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="O48" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="P48" s="39" t="s">
+      <c r="N48" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O48" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P48" s="40" t="s">
         <v>9</v>
       </c>
       <c r="Q48" s="36" t="s">
@@ -4251,10 +4391,14 @@
       <c r="R48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="38"/>
+      <c r="S48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="38"/>
+      <c r="V48" s="39"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="32">
@@ -4276,7 +4420,7 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G49" s="43" t="s">
         <v>9</v>
@@ -4287,7 +4431,7 @@
       <c r="I49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="39" t="s">
+      <c r="J49" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K49" s="29" t="s">
@@ -4314,12 +4458,14 @@
       <c r="R49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="38"/>
+      <c r="S49" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="38"/>
+      <c r="V49" s="39"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="32">
@@ -4341,7 +4487,7 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4352,7 +4498,7 @@
       <c r="I50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="39" t="s">
+      <c r="J50" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K50" s="29" t="s">
@@ -4364,7 +4510,7 @@
       <c r="M50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="40" t="s">
+      <c r="N50" s="37" t="s">
         <v>9</v>
       </c>
       <c r="O50" s="29" t="s">
@@ -4379,10 +4525,14 @@
       <c r="R50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="38"/>
+      <c r="S50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U50" s="38"/>
+      <c r="V50" s="39"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="32">
@@ -4404,7 +4554,7 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4442,12 +4592,14 @@
       <c r="R51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S51" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="38"/>
+      <c r="S51" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" s="38"/>
+      <c r="V51" s="39"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="32">
@@ -4469,7 +4621,7 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4483,7 +4635,7 @@
       <c r="J52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="39" t="s">
+      <c r="K52" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L52" s="29" t="s">
@@ -4501,16 +4653,20 @@
       <c r="P52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="39" t="s">
+      <c r="Q52" s="40" t="s">
         <v>9</v>
       </c>
       <c r="R52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="38"/>
+      <c r="S52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U52" s="38"/>
+      <c r="V52" s="39"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="32">
@@ -4532,7 +4688,7 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4570,10 +4726,14 @@
       <c r="R53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="38"/>
+      <c r="S53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" s="38"/>
+      <c r="V53" s="39"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="32">
@@ -4595,7 +4755,7 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4606,7 +4766,7 @@
       <c r="I54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="39" t="s">
+      <c r="J54" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K54" s="29" t="s">
@@ -4621,7 +4781,7 @@
       <c r="N54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O54" s="39" t="s">
+      <c r="O54" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P54" s="29" t="s">
@@ -4633,10 +4793,14 @@
       <c r="R54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="38"/>
+      <c r="S54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U54" s="38"/>
+      <c r="V54" s="39"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="32">
@@ -4658,7 +4822,7 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4669,7 +4833,7 @@
       <c r="I55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="39" t="s">
+      <c r="J55" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K55" s="29" t="s">
@@ -4684,7 +4848,7 @@
       <c r="N55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O55" s="39" t="s">
+      <c r="O55" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P55" s="29" t="s">
@@ -4696,10 +4860,14 @@
       <c r="R55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="38"/>
+      <c r="S55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55" s="38"/>
+      <c r="V55" s="39"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="32">
@@ -4721,7 +4889,7 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -4732,7 +4900,7 @@
       <c r="I56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="39" t="s">
+      <c r="J56" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K56" s="29" t="s">
@@ -4759,10 +4927,14 @@
       <c r="R56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="38"/>
+      <c r="S56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="38"/>
+      <c r="V56" s="39"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="32">
@@ -4780,11 +4952,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G57" s="43" t="s">
         <v>9</v>
@@ -4822,10 +4994,14 @@
       <c r="R57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="38"/>
+      <c r="S57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U57" s="38"/>
+      <c r="V57" s="39"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="32">
@@ -4847,7 +5023,7 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -4879,16 +5055,20 @@
       <c r="P58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q58" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R58" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="38"/>
+      <c r="Q58" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U58" s="38"/>
+      <c r="V58" s="39"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="32">
@@ -4906,11 +5086,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4936,22 +5116,26 @@
       <c r="N59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="P59" s="39" t="s">
+      <c r="O59" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P59" s="40" t="s">
         <v>9</v>
       </c>
       <c r="Q59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R59" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="38"/>
+      <c r="R59" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T59" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U59" s="38"/>
+      <c r="V59" s="39"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="32">
@@ -4973,7 +5157,7 @@
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -5011,12 +5195,14 @@
       <c r="R60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="38"/>
+      <c r="S60" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="38"/>
+      <c r="V60" s="39"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="32">
@@ -5038,7 +5224,7 @@
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -5049,7 +5235,7 @@
       <c r="I61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="39" t="s">
+      <c r="J61" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K61" s="29" t="s">
@@ -5064,7 +5250,7 @@
       <c r="N61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O61" s="39" t="s">
+      <c r="O61" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P61" s="29" t="s">
@@ -5076,10 +5262,14 @@
       <c r="R61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="38"/>
+      <c r="S61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" s="38"/>
+      <c r="V61" s="39"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="32">
@@ -5101,7 +5291,7 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -5112,10 +5302,10 @@
       <c r="I62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62" s="39" t="s">
+      <c r="J62" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L62" s="29" t="s">
@@ -5139,10 +5329,14 @@
       <c r="R62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="38"/>
+      <c r="S62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62" s="38"/>
+      <c r="V62" s="39"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="32">
@@ -5164,7 +5358,7 @@
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -5175,7 +5369,7 @@
       <c r="I63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="39" t="s">
+      <c r="J63" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K63" s="29" t="s">
@@ -5202,10 +5396,14 @@
       <c r="R63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="38"/>
+      <c r="S63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U63" s="38"/>
+      <c r="V63" s="39"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="32">
@@ -5227,7 +5425,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -5238,7 +5436,7 @@
       <c r="I64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="39" t="s">
+      <c r="J64" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K64" s="29" t="s">
@@ -5253,7 +5451,7 @@
       <c r="N64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="39" t="s">
+      <c r="O64" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P64" s="29" t="s">
@@ -5265,10 +5463,14 @@
       <c r="R64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="38"/>
+      <c r="S64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U64" s="38"/>
+      <c r="V64" s="39"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="32">
@@ -5290,7 +5492,7 @@
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -5301,7 +5503,7 @@
       <c r="I65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J65" s="39" t="s">
+      <c r="J65" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K65" s="29" t="s">
@@ -5319,7 +5521,7 @@
       <c r="O65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P65" s="39" t="s">
+      <c r="P65" s="40" t="s">
         <v>9</v>
       </c>
       <c r="Q65" s="36" t="s">
@@ -5328,12 +5530,14 @@
       <c r="R65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="38"/>
+      <c r="S65" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" s="38"/>
+      <c r="V65" s="39"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="32">
@@ -5351,11 +5555,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -5366,7 +5570,7 @@
       <c r="I66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="39" t="s">
+      <c r="J66" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K66" s="29" t="s">
@@ -5393,10 +5597,14 @@
       <c r="R66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="38"/>
+      <c r="S66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T66" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U66" s="38"/>
+      <c r="V66" s="39"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="32">
@@ -5418,7 +5626,7 @@
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -5429,7 +5637,7 @@
       <c r="I67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="39" t="s">
+      <c r="J67" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K67" s="29" t="s">
@@ -5444,22 +5652,26 @@
       <c r="N67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="39" t="s">
+      <c r="O67" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q67" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R67" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="38"/>
+      <c r="Q67" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="R67" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U67" s="38"/>
+      <c r="V67" s="39"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="32">
@@ -5481,7 +5693,7 @@
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5498,31 +5710,35 @@
       <c r="K68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L68" s="39" t="s">
+      <c r="L68" s="40" t="s">
         <v>9</v>
       </c>
       <c r="M68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="O68" s="39" t="s">
+      <c r="N68" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O68" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q68" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R68" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="38"/>
+      <c r="Q68" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="R68" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U68" s="38"/>
+      <c r="V68" s="39"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="32">
@@ -5544,7 +5760,7 @@
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5555,7 +5771,7 @@
       <c r="I69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="39" t="s">
+      <c r="J69" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K69" s="29" t="s">
@@ -5582,10 +5798,14 @@
       <c r="R69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="38"/>
+      <c r="S69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69" s="38"/>
+      <c r="V69" s="39"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="32">
@@ -5607,7 +5827,7 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5618,7 +5838,7 @@
       <c r="I70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J70" s="39" t="s">
+      <c r="J70" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K70" s="29" t="s">
@@ -5645,12 +5865,14 @@
       <c r="R70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S70" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="38"/>
+      <c r="S70" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U70" s="38"/>
+      <c r="V70" s="39"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="32">
@@ -5672,7 +5894,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5701,7 +5923,7 @@
       <c r="O71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P71" s="39" t="s">
+      <c r="P71" s="40" t="s">
         <v>9</v>
       </c>
       <c r="Q71" s="36" t="s">
@@ -5710,12 +5932,14 @@
       <c r="R71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S71" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="38"/>
+      <c r="S71" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U71" s="38"/>
+      <c r="V71" s="39"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="32">
@@ -5737,7 +5961,7 @@
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -5748,7 +5972,7 @@
       <c r="I72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="39" t="s">
+      <c r="J72" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K72" s="29" t="s">
@@ -5763,7 +5987,7 @@
       <c r="N72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O72" s="39" t="s">
+      <c r="O72" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P72" s="29" t="s">
@@ -5775,10 +5999,14 @@
       <c r="R72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="38"/>
+      <c r="S72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U72" s="38"/>
+      <c r="V72" s="39"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="32">
@@ -5800,7 +6028,7 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -5829,21 +6057,23 @@
       <c r="O73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q73" s="39" t="s">
+      <c r="P73" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q73" s="40" t="s">
         <v>9</v>
       </c>
       <c r="R73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="38"/>
+      <c r="S73" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U73" s="38"/>
+      <c r="V73" s="39"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="32">
@@ -5865,7 +6095,7 @@
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G74" s="43" t="s">
         <v>9</v>
@@ -5873,10 +6103,10 @@
       <c r="H74" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I74" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J74" s="39" t="s">
+      <c r="I74" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K74" s="29" t="s">
@@ -5903,10 +6133,14 @@
       <c r="R74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="38"/>
+      <c r="S74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74" s="38"/>
+      <c r="V74" s="39"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="32">
@@ -5928,7 +6162,7 @@
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G75" s="43" t="s">
         <v>9</v>
@@ -5936,7 +6170,7 @@
       <c r="H75" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I75" s="40" t="s">
+      <c r="I75" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J75" s="29" t="s">
@@ -5966,10 +6200,14 @@
       <c r="R75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="38"/>
+      <c r="S75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U75" s="38"/>
+      <c r="V75" s="39"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="32">
@@ -5991,7 +6229,7 @@
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -5999,7 +6237,7 @@
       <c r="H76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="40" t="s">
+      <c r="I76" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J76" s="29" t="s">
@@ -6029,10 +6267,14 @@
       <c r="R76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="38"/>
+      <c r="S76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U76" s="38"/>
+      <c r="V76" s="39"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="32">
@@ -6050,11 +6292,11 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -6062,7 +6304,7 @@
       <c r="H77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="40" t="s">
+      <c r="I77" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J77" s="29" t="s">
@@ -6092,10 +6334,14 @@
       <c r="R77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S77" s="37"/>
-      <c r="T77" s="37"/>
-      <c r="U77" s="37"/>
-      <c r="V77" s="38"/>
+      <c r="S77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T77" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U77" s="38"/>
+      <c r="V77" s="39"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="32">
@@ -6117,7 +6363,7 @@
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -6155,10 +6401,14 @@
       <c r="R78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="38"/>
+      <c r="S78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U78" s="38"/>
+      <c r="V78" s="39"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="32">
@@ -6180,7 +6430,7 @@
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>20</v>
@@ -6203,7 +6453,7 @@
       <c r="M79" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N79" s="40" t="s">
+      <c r="N79" s="37" t="s">
         <v>9</v>
       </c>
       <c r="O79" s="29" t="s">
@@ -6218,10 +6468,14 @@
       <c r="R79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S79" s="37"/>
-      <c r="T79" s="37"/>
-      <c r="U79" s="37"/>
-      <c r="V79" s="38"/>
+      <c r="S79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U79" s="38"/>
+      <c r="V79" s="39"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="32" t="str">
@@ -6240,21 +6494,21 @@
         <v/>
       </c>
       <c r="G80" s="45"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+      <c r="S80" s="38"/>
+      <c r="T80" s="38"/>
+      <c r="U80" s="38"/>
+      <c r="V80" s="39"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="32" t="str">
@@ -6273,21 +6527,21 @@
         <v/>
       </c>
       <c r="G81" s="45"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="38"/>
+      <c r="V81" s="39"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="32" t="str">
@@ -6306,21 +6560,21 @@
         <v/>
       </c>
       <c r="G82" s="45"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="37"/>
-      <c r="T82" s="37"/>
-      <c r="U82" s="37"/>
-      <c r="V82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="38"/>
+      <c r="V82" s="39"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="32" t="str">
@@ -6339,21 +6593,21 @@
         <v/>
       </c>
       <c r="G83" s="45"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="37"/>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="37"/>
-      <c r="V83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="38"/>
+      <c r="V83" s="39"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="32" t="str">
@@ -6372,21 +6626,21 @@
         <v/>
       </c>
       <c r="G84" s="45"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="39"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="32" t="str">
@@ -6405,21 +6659,21 @@
         <v/>
       </c>
       <c r="G85" s="45"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="39"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="32" t="str">
@@ -6438,21 +6692,21 @@
         <v/>
       </c>
       <c r="G86" s="45"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="39"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="32" t="str">
@@ -6471,21 +6725,21 @@
         <v/>
       </c>
       <c r="G87" s="45"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="37"/>
-      <c r="R87" s="37"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="38"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="38"/>
+      <c r="V87" s="39"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="32" t="str">
@@ -6504,21 +6758,21 @@
         <v/>
       </c>
       <c r="G88" s="45"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="39"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="32" t="str">
@@ -6537,21 +6791,21 @@
         <v/>
       </c>
       <c r="G89" s="45"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
+      <c r="Q89" s="38"/>
+      <c r="R89" s="38"/>
+      <c r="S89" s="38"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="38"/>
+      <c r="V89" s="39"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="32" t="str">
@@ -6570,21 +6824,21 @@
         <v/>
       </c>
       <c r="G90" s="45"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="38"/>
+      <c r="V90" s="39"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="32" t="str">
@@ -6603,21 +6857,21 @@
         <v/>
       </c>
       <c r="G91" s="45"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="38"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="38"/>
+      <c r="V91" s="39"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="32" t="str">
@@ -6636,21 +6890,21 @@
         <v/>
       </c>
       <c r="G92" s="45"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="37"/>
-      <c r="O92" s="37"/>
-      <c r="P92" s="37"/>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="37"/>
-      <c r="S92" s="37"/>
-      <c r="T92" s="37"/>
-      <c r="U92" s="37"/>
-      <c r="V92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="38"/>
+      <c r="V92" s="39"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="32" t="str">
@@ -6669,21 +6923,21 @@
         <v/>
       </c>
       <c r="G93" s="45"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="37"/>
-      <c r="V93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="38"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38"/>
+      <c r="V93" s="39"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="32" t="str">
@@ -6702,21 +6956,21 @@
         <v/>
       </c>
       <c r="G94" s="45"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="37"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="37"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="37"/>
-      <c r="T94" s="37"/>
-      <c r="U94" s="37"/>
-      <c r="V94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="38"/>
+      <c r="V94" s="39"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="32" t="str">
@@ -6735,21 +6989,21 @@
         <v/>
       </c>
       <c r="G95" s="45"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
-      <c r="Q95" s="37"/>
-      <c r="R95" s="37"/>
-      <c r="S95" s="37"/>
-      <c r="T95" s="37"/>
-      <c r="U95" s="37"/>
-      <c r="V95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="38"/>
+      <c r="V95" s="39"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="G96" s="47"/>
@@ -22137,7 +22391,7 @@
       <c r="U1000" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="$R$6:$R$79"/>
+  <autoFilter ref="$S$6:$T$79"/>
   <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
